--- a/De2.xlsx
+++ b/De2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chuan CNTT\De thi mau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\chung chi tin hoc_tien\tin hoc CNTTCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -132,9 +132,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,11 +379,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -444,6 +441,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>71966</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943850" y="1171575"/>
+          <a:ext cx="1672166" cy="1663700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -712,7 +758,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1061,5 +1107,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>